--- a/Example_Dataset_3_longformat/dictionary_for_microbiology_data.xlsx
+++ b/Example_Dataset_3_longformat/dictionary_for_microbiology_data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Downloads\AMASS2\AMASS2.0\Example_Dataset_3_longformat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Documents\AMASSv2.0.16_20221020\AMASSv2.0\Example_Dataset_3_longformat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354C1457-ADE6-44A1-A9E0-CB9DF4690ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C654B48-2FF1-429A-9659-087F30897D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" xr2:uid="{AAB79921-DF00-466D-B2DA-3FDBFBB1FD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$461</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="927">
   <si>
     <t>"Don't change content in this column, but you can add rows with the same content if needed" </t>
   </si>
@@ -485,9 +488,6 @@
     <t>organism_klebsiella_oxytoca</t>
   </si>
   <si>
-    <t>organism_klebsiella_pseudopneumoniae</t>
-  </si>
-  <si>
     <t>organism_klebsiella_variicola</t>
   </si>
   <si>
@@ -545,9 +545,6 @@
     <t>organism_serratia_marcescens</t>
   </si>
   <si>
-    <t>organism_staphylococcus_ludunensis</t>
-  </si>
-  <si>
     <t>organism_staphylococcus_spp</t>
   </si>
   <si>
@@ -6036,30 +6033,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Klebsiella pseudopneumoniae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" used in your microbiology data file here if possible</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Please provide the name of the "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Knoellia</t>
     </r>
     <r>
@@ -7716,30 +7689,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Staphylococcus ludunensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" used in your microbiology data file here if possible</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Please provide the name of the "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Staphylococcus muscae</t>
     </r>
     <r>
@@ -8794,6 +8743,1338 @@
     <t>Please provide the name of the "Viridans group streptococci" used in your microbiology data file here if possible</t>
   </si>
   <si>
+    <t>Clarithromycin</t>
+  </si>
+  <si>
+    <t>Nalidixic_acid</t>
+  </si>
+  <si>
+    <t>Optional: Configuration for data values of variable in the main report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">organism_acinetobacter_baumanii or organism_acinetobacter_spp. Default is organism_acinetobacter_baumanii. Change this value only if you want to analyze your microbiology data with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acinetobacter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_citrobacter_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Citrobacter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_enterobacter_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Enterobacter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_morganella_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Morganella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_proteus_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Proteus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_providencia_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rovidencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_serratia_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Serratia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_yersinia_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yersinia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_klebsiella_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Klebsiella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_pseudomonas_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pseudomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_aeromonas_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Aeromonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_achromobacter_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Achromobacter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_burkholderia_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Burkholderia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_chryseobacterium_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hryseobacterium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_sphingomonas_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>phingomonas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_shewanella_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hewanella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_haemophilus_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Haemophilus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_moraxella_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Moraxella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_pasteurella_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asteurella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_streptococcus_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Streptococcus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_cryptococcus_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cryptococcus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_streptococcus_pyogenes</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus pyogenes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_streptococcus_agalactiae</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus agalactiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_streptococcus_bovis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_dysgalactiae</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_gallolyticus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_mutans</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_salivarius</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_mitis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_anginosus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_alactolyticus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_constellatus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_pluranimalium</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_pseudoporcinus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_infantis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_gordonii</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_hyointestinalis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_intermedius</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_lutetiensis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_parasanguinis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_porcinus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_sanguinis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organism_streptococcus_thoraltensis </t>
+  </si>
+  <si>
+    <t>organism_streptococcus_uberis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_oralis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_canis</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_cristatus</t>
+  </si>
+  <si>
+    <t>organism_streptococcus_vestibularis</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus bovis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus dysgalactiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus gallolyticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus mutans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus salivarius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus mitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus anginosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus constellatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus alactolyticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus pluranimalium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus pseudoporcinus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus infantis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus gordonii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus hyointestinalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus intermedius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus lutetiensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus parasanguinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus porcinus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus sanguinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus thoraltensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus uberis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus oralis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus canis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus cristatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Streptococcus vestibularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_escherichia_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Escherichia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>acinetobacter_spp_or_baumannii</t>
+  </si>
+  <si>
     <t>hn</t>
   </si>
   <si>
@@ -8809,19 +10090,7 @@
     <t>AMX</t>
   </si>
   <si>
-    <t>AUG</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>CZ</t>
+    <t>AP</t>
   </si>
   <si>
     <t>FEP</t>
@@ -8830,30 +10099,18 @@
     <t>CTX</t>
   </si>
   <si>
-    <t>CTT</t>
-  </si>
-  <si>
     <t>FOX</t>
   </si>
   <si>
     <t>CPD</t>
   </si>
   <si>
-    <t>CPT</t>
-  </si>
-  <si>
     <t>CAZ</t>
   </si>
   <si>
     <t>CRO</t>
   </si>
   <si>
-    <t>CXM</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>CFX</t>
   </si>
   <si>
@@ -8863,30 +10120,18 @@
     <t>CL</t>
   </si>
   <si>
-    <t>QDA</t>
-  </si>
-  <si>
     <t>DAP</t>
   </si>
   <si>
     <t>DOR</t>
   </si>
   <si>
-    <t>DOX</t>
-  </si>
-  <si>
     <t>ETP</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>FOS</t>
-  </si>
-  <si>
-    <t>FUS</t>
-  </si>
-  <si>
     <t>GM</t>
   </si>
   <si>
@@ -8905,12 +10150,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>MXX</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
     <t>OX</t>
   </si>
   <si>
@@ -8920,33 +10159,12 @@
     <t>TZP</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>RAMP</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>TCO</t>
   </si>
   <si>
-    <t>TLV</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>TIM</t>
-  </si>
-  <si>
     <t>TGC</t>
   </si>
   <si>
-    <t>NN</t>
-  </si>
-  <si>
     <t>SXT</t>
   </si>
   <si>
@@ -8959,6 +10177,9 @@
     <t>csf</t>
   </si>
   <si>
+    <t>genital swab</t>
+  </si>
+  <si>
     <t>sputum</t>
   </si>
   <si>
@@ -8968,12 +10189,12 @@
     <t>urine</t>
   </si>
   <si>
+    <t>pus from wound</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>pus from wound</t>
-  </si>
-  <si>
     <t>no growth</t>
   </si>
   <si>
@@ -9034,23 +10255,229 @@
     <t>I</t>
   </si>
   <si>
+    <t>Burkholderia pseudomallei</t>
+  </si>
+  <si>
+    <t>Vibrio spp</t>
+  </si>
+  <si>
+    <t>Acinetobacter baumannii</t>
+  </si>
+  <si>
+    <t>Staphylococcus epidermidis</t>
+  </si>
+  <si>
+    <t>Klebsiella oxytoca</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>spcnum</t>
-  </si>
-  <si>
-    <t>Clarithromycin</t>
-  </si>
-  <si>
-    <t>Nalidixic_acid</t>
+    <t>organism_staphylococcus_lugdunensis</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staphylococcus lugdunensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_listeria_monocytogenes</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listeria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>monocytogenes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_listeria_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listeria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_stenotrophomonas_maltophilia</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tenotrophomonas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maltophilia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_stenotrophomonas_spp</t>
+  </si>
+  <si>
+    <r>
+      <t>Please provide the name of the "S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tenotrophomonas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spp" used in your microbiology data file here if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>organism_staphylococcus_coagulase_negative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please provide the name of the "Coagulase negative </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Staphylococcus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" used in your microbiology data file here if possible</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9101,13 +10528,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -9192,7 +10612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9273,7 +10693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9589,10 +11008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4118E596-8BA3-4C5D-AA5B-D47E16E86D84}">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9628,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -9636,7 +11055,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>752</v>
+        <v>849</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -9650,7 +11069,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -9664,7 +11083,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>754</v>
+        <v>851</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -9701,16 +11120,16 @@
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -9718,7 +11137,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>755</v>
+        <v>852</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>23</v>
@@ -9732,7 +11151,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>756</v>
+        <v>853</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>23</v>
@@ -9745,9 +11164,7 @@
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>757</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
@@ -9760,7 +11177,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>758</v>
+        <v>854</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>23</v>
@@ -9773,9 +11190,7 @@
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>759</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
@@ -9784,12 +11199,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>760</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
@@ -9801,9 +11214,7 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>761</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
@@ -9816,7 +11227,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>23</v>
@@ -9830,7 +11241,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>23</v>
@@ -9843,9 +11254,7 @@
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>764</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
@@ -9858,7 +11267,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>23</v>
@@ -9872,7 +11281,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>23</v>
@@ -9885,9 +11294,7 @@
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>767</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
@@ -9900,7 +11307,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>23</v>
@@ -9914,7 +11321,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>23</v>
@@ -9927,9 +11334,7 @@
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>770</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
@@ -9941,9 +11346,7 @@
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>771</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
         <v>23</v>
       </c>
@@ -9956,7 +11359,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>23</v>
@@ -9967,7 +11370,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="9" t="s">
@@ -9982,7 +11385,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>773</v>
+        <v>862</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>23</v>
@@ -9996,7 +11399,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>774</v>
+        <v>863</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>23</v>
@@ -10009,9 +11412,7 @@
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>775</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
@@ -10024,7 +11425,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>776</v>
+        <v>864</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>23</v>
@@ -10038,7 +11439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>23</v>
@@ -10051,9 +11452,7 @@
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>778</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="9" t="s">
         <v>23</v>
       </c>
@@ -10066,7 +11465,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>779</v>
+        <v>866</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>23</v>
@@ -10080,7 +11479,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>780</v>
+        <v>867</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>23</v>
@@ -10093,9 +11492,7 @@
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>781</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
@@ -10107,9 +11504,7 @@
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>782</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
@@ -10122,7 +11517,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>783</v>
+        <v>868</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>23</v>
@@ -10136,7 +11531,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>784</v>
+        <v>869</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>23</v>
@@ -10150,7 +11545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>785</v>
+        <v>870</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>23</v>
@@ -10164,7 +11559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>786</v>
+        <v>871</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>23</v>
@@ -10178,7 +11573,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>787</v>
+        <v>872</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>23</v>
@@ -10204,7 +11599,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>788</v>
+        <v>873</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>23</v>
@@ -10217,9 +11612,7 @@
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>789</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
@@ -10229,7 +11622,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="9" t="s">
@@ -10243,9 +11636,7 @@
       <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>790</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="9" t="s">
         <v>23</v>
       </c>
@@ -10270,7 +11661,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>791</v>
+        <v>874</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>23</v>
@@ -10284,7 +11675,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>792</v>
+        <v>875</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>23</v>
@@ -10298,7 +11689,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>793</v>
+        <v>876</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>23</v>
@@ -10311,9 +11702,7 @@
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>794</v>
-      </c>
+      <c r="B52" s="4"/>
       <c r="C52" s="9" t="s">
         <v>23</v>
       </c>
@@ -10325,9 +11714,7 @@
       <c r="A53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>795</v>
-      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
@@ -10339,9 +11726,7 @@
       <c r="A54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>796</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
@@ -10351,10 +11736,10 @@
     </row>
     <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>797</v>
+        <v>879</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>23</v>
@@ -10365,10 +11750,10 @@
     </row>
     <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>798</v>
+        <v>877</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>23</v>
@@ -10379,11 +11764,9 @@
     </row>
     <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>799</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="9" t="s">
         <v>23</v>
       </c>
@@ -10393,11 +11776,9 @@
     </row>
     <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>800</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="9" t="s">
         <v>23</v>
       </c>
@@ -10407,11 +11788,9 @@
     </row>
     <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>801</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="B59" s="4"/>
       <c r="C59" s="9" t="s">
         <v>23</v>
       </c>
@@ -10421,10 +11800,10 @@
     </row>
     <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>23</v>
@@ -10435,7 +11814,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="9" t="s">
@@ -10447,11 +11826,9 @@
     </row>
     <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>803</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="9" t="s">
         <v>23</v>
       </c>
@@ -10460,11 +11837,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>804</v>
+        <v>880</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>23</v>
@@ -10475,140 +11852,142 @@
     </row>
     <row r="64" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>805</v>
+        <v>881</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>806</v>
+        <v>882</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>883</v>
+      </c>
       <c r="C67" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>807</v>
+        <v>884</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>808</v>
+        <v>885</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>809</v>
+        <v>886</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>810</v>
+        <v>887</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>811</v>
+        <v>888</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10616,7 +11995,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>812</v>
+        <v>889</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>7</v>
@@ -10627,110 +12006,112 @@
     </row>
     <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>719</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>911</v>
+      </c>
       <c r="C76" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10738,25 +12119,25 @@
         <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>813</v>
+        <v>890</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10768,67 +12149,67 @@
         <v>18</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10840,91 +12221,91 @@
         <v>18</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10932,13 +12313,13 @@
         <v>81</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>814</v>
+        <v>891</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10946,13 +12327,13 @@
         <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10960,13 +12341,13 @@
         <v>79</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>816</v>
+        <v>893</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -10974,901 +12355,901 @@
         <v>80</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>817</v>
+        <v>894</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11876,13 +13257,13 @@
         <v>83</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>818</v>
+        <v>895</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11890,13 +13271,13 @@
         <v>83</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>819</v>
+        <v>896</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11904,13 +13285,13 @@
         <v>83</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>820</v>
+        <v>897</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11918,13 +13299,13 @@
         <v>83</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>821</v>
+        <v>898</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11932,13 +13313,13 @@
         <v>83</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>822</v>
+        <v>899</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11946,13 +13327,13 @@
         <v>77</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>823</v>
+        <v>900</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -11960,158 +13341,158 @@
         <v>82</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>824</v>
+        <v>901</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D185" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="20" t="s">
-        <v>403</v>
+      <c r="D186" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>825</v>
+        <v>903</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>826</v>
+        <v>904</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>827</v>
+        <v>904</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C190" s="5" t="s">
+      <c r="A190" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>91</v>
+      <c r="D190" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C191" s="22" t="s">
+      <c r="A191" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D191" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D192" s="6" t="s">
+      <c r="D191" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C193" s="20" t="s">
+    <row r="192" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C192" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="20" t="s">
+      <c r="D192" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B193" s="11" t="s">
         <v>405</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>407</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B194" s="11"/>
       <c r="C194" s="12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="12" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>100</v>
@@ -12119,7 +13500,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="12" t="s">
@@ -12129,38 +13510,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12" t="s">
+    <row r="197" spans="1:4" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C197" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D197" s="13" t="s">
-        <v>100</v>
+      <c r="D197" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="C198" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>830</v>
+        <v>908</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>18</v>
@@ -12169,2520 +13552,3181 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="27" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A201" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="B201" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="C201" s="20" t="s">
+    <row r="200" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A200" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="20" t="s">
-        <v>401</v>
+      <c r="D200" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
-        <v>289</v>
+        <v>770</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>524</v>
+        <v>771</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="15" t="s">
-        <v>116</v>
+      <c r="A208" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A210" s="8" t="s">
-        <v>390</v>
+      <c r="A210" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="15" t="s">
-        <v>118</v>
+      <c r="A211" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="8" t="s">
-        <v>290</v>
+      <c r="A212" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="15" t="s">
-        <v>119</v>
+      <c r="A230" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
-        <v>380</v>
+      <c r="A232" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="15" t="s">
-        <v>121</v>
+      <c r="A236" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
-        <v>735</v>
+        <v>121</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>742</v>
+        <v>551</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
-        <v>107</v>
+      <c r="A238" s="15" t="s">
+        <v>731</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>554</v>
+        <v>738</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B239" s="4"/>
+      <c r="A239" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>909</v>
+      </c>
       <c r="C239" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="8" t="s">
-        <v>270</v>
+      <c r="A240" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>556</v>
+        <v>775</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="3" t="s">
-        <v>108</v>
+      <c r="A243" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="3" t="s">
-        <v>396</v>
+      <c r="A244" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="8" t="s">
-        <v>308</v>
+      <c r="A245" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="8" t="s">
-        <v>309</v>
+      <c r="A246" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="15" t="s">
-        <v>122</v>
+      <c r="A247" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="15" t="s">
-        <v>123</v>
+      <c r="A248" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="14" t="s">
-        <v>124</v>
+      <c r="A249" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A250" s="14" t="s">
-        <v>125</v>
+      <c r="A250" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="14" t="s">
-        <v>126</v>
+      <c r="A251" s="15" t="s">
+        <v>776</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>567</v>
+        <v>777</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="8" t="s">
-        <v>386</v>
+      <c r="A252" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="8" t="s">
-        <v>385</v>
+      <c r="A253" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A254" s="8" t="s">
-        <v>384</v>
+      <c r="A254" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A255" s="8" t="s">
-        <v>383</v>
+      <c r="A255" s="14" t="s">
+        <v>752</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>571</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D257" s="13" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="3" t="s">
-        <v>127</v>
+      <c r="A258" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D258" s="13" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="16" t="s">
-        <v>128</v>
+      <c r="A262" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D262" s="13" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D263" s="13" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="8" t="s">
-        <v>313</v>
+      <c r="A266" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A272" s="16" t="s">
-        <v>129</v>
+      <c r="A272" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A275" s="16" t="s">
-        <v>130</v>
+      <c r="A275" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A277" s="16" t="s">
-        <v>132</v>
+      <c r="A277" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="15" t="s">
-        <v>134</v>
+      <c r="A280" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="8" t="s">
-        <v>322</v>
+      <c r="A281" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="15" t="s">
-        <v>135</v>
+      <c r="A282" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="17" t="s">
-        <v>136</v>
+      <c r="A283" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A284" s="15" t="s">
-        <v>137</v>
+      <c r="A284" s="16" t="s">
+        <v>790</v>
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>600</v>
+        <v>791</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="s">
-        <v>736</v>
+        <v>134</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>740</v>
+        <v>594</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="15" t="s">
-        <v>737</v>
+      <c r="A286" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="14" t="s">
-        <v>138</v>
+      <c r="A287" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A288" s="14" t="s">
-        <v>141</v>
+      <c r="A288" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D288" s="13" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="8" t="s">
-        <v>323</v>
+      <c r="A289" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="s">
-        <v>142</v>
+        <v>732</v>
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>604</v>
+        <v>736</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
-        <v>143</v>
+        <v>733</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D291" s="13" t="s">
-        <v>605</v>
+        <v>735</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="14" t="s">
-        <v>397</v>
+        <v>138</v>
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="14" t="s">
-        <v>144</v>
+        <v>754</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D293" s="13" t="s">
-        <v>607</v>
+        <v>755</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="15" t="s">
-        <v>145</v>
+      <c r="A294" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D294" s="13" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A295" s="15" t="s">
-        <v>395</v>
+      <c r="A295" s="14" t="s">
+        <v>846</v>
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D295" s="13" t="s">
-        <v>609</v>
+        <v>847</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A296" s="15" t="s">
-        <v>146</v>
+      <c r="A296" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A297" s="14" t="s">
-        <v>147</v>
+      <c r="A297" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A298" s="14" t="s">
-        <v>148</v>
+      <c r="A298" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="14" t="s">
-        <v>149</v>
+        <v>395</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D299" s="13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="14" t="s">
-        <v>150</v>
+        <v>782</v>
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>615</v>
+        <v>783</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A301" s="15" t="s">
-        <v>151</v>
+      <c r="A301" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D301" s="13" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A302" s="8" t="s">
-        <v>324</v>
+      <c r="A302" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="8" t="s">
-        <v>325</v>
+      <c r="A303" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D303" s="13" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D304" s="13" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A305" s="15" t="s">
-        <v>153</v>
+      <c r="A305" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B306" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>913</v>
+      </c>
       <c r="C306" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D306" s="13" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A307" s="15" t="s">
-        <v>155</v>
+      <c r="A307" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A308" s="8" t="s">
-        <v>326</v>
+      <c r="A308" s="14" t="s">
+        <v>766</v>
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>622</v>
+        <v>767</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A309" s="8" t="s">
-        <v>327</v>
+      <c r="A309" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="15" t="s">
-        <v>156</v>
+      <c r="A310" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D311" s="13" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A312" s="8" t="s">
-        <v>329</v>
+      <c r="A312" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A313" s="8" t="s">
-        <v>330</v>
+      <c r="A313" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="8" t="s">
-        <v>331</v>
+      <c r="A314" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A316" s="14" t="s">
-        <v>158</v>
+      <c r="A316" s="15" t="s">
+        <v>917</v>
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>630</v>
+        <v>918</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A317" s="3" t="s">
-        <v>109</v>
+      <c r="A317" s="15" t="s">
+        <v>919</v>
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D317" s="13" t="s">
-        <v>631</v>
+        <v>920</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A318" s="3" t="s">
-        <v>110</v>
+      <c r="A318" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D318" s="13" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A319" s="15" t="s">
-        <v>159</v>
+      <c r="A319" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="15" t="s">
-        <v>738</v>
+        <v>155</v>
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D320" s="13" t="s">
-        <v>741</v>
+        <v>621</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="15" t="s">
-        <v>718</v>
+      <c r="A321" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>719</v>
+        <v>622</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A322" s="15" t="s">
-        <v>393</v>
+      <c r="A322" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>394</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D323" s="13" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D324" s="13" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A325" s="8" t="s">
-        <v>334</v>
+      <c r="A325" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D325" s="13" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="15" t="s">
-        <v>160</v>
+      <c r="A326" s="14" t="s">
+        <v>784</v>
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>637</v>
+        <v>785</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A327" s="8" t="s">
-        <v>335</v>
+      <c r="A327" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A328" s="8" t="s">
-        <v>336</v>
+      <c r="A328" s="14" t="s">
+        <v>756</v>
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D328" s="13" t="s">
-        <v>639</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A329" s="8" t="s">
-        <v>337</v>
+      <c r="A329" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D329" s="13" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A330" s="8" t="s">
-        <v>338</v>
+      <c r="A330" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D330" s="13" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A331" s="8" t="s">
-        <v>339</v>
+      <c r="A331" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D331" s="13" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A332" s="8" t="s">
-        <v>340</v>
+      <c r="A332" s="15" t="s">
+        <v>734</v>
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D332" s="13" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A333" s="8" t="s">
-        <v>341</v>
+      <c r="A333" s="15" t="s">
+        <v>714</v>
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D333" s="13" t="s">
-        <v>644</v>
+        <v>715</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="15" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>645</v>
+        <v>392</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A335" s="14" t="s">
-        <v>162</v>
+      <c r="A335" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A336" s="14" t="s">
-        <v>163</v>
+      <c r="A336" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A337" s="14" t="s">
-        <v>164</v>
+      <c r="A337" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A338" s="14" t="s">
-        <v>165</v>
+      <c r="A338" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A339" s="14" t="s">
-        <v>166</v>
+      <c r="A339" s="15" t="s">
+        <v>786</v>
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>650</v>
+        <v>787</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A340" s="15" t="s">
-        <v>167</v>
+      <c r="A340" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="8" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B342" s="4"/>
       <c r="C342" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A344" s="14" t="s">
-        <v>342</v>
+      <c r="A344" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="14" t="s">
-        <v>168</v>
+      <c r="A345" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="8" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A347" s="8" t="s">
-        <v>274</v>
+      <c r="A347" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="8" t="s">
-        <v>275</v>
+      <c r="A348" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B348" s="4"/>
       <c r="C348" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A349" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B349" s="36"/>
+      <c r="A349" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B349" s="4"/>
       <c r="C349" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A350" s="3" t="s">
-        <v>111</v>
+      <c r="A350" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A351" s="8" t="s">
-        <v>345</v>
+      <c r="A351" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A352" s="8" t="s">
-        <v>346</v>
+      <c r="A352" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A353" s="8" t="s">
-        <v>347</v>
+      <c r="A353" s="14" t="s">
+        <v>758</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>664</v>
+        <v>759</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A354" s="8" t="s">
-        <v>348</v>
+      <c r="A354" s="14" t="s">
+        <v>760</v>
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>665</v>
+        <v>761</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A355" s="8" t="s">
-        <v>349</v>
+      <c r="A355" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A356" s="8" t="s">
-        <v>350</v>
+      <c r="A356" s="3" t="s">
+        <v>768</v>
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D356" s="13" t="s">
-        <v>667</v>
+        <v>177</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B357" s="29"/>
+        <v>390</v>
+      </c>
+      <c r="B357" s="4"/>
       <c r="C357" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B358" s="29"/>
+        <v>341</v>
+      </c>
+      <c r="B358" s="4"/>
       <c r="C358" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B359" s="29"/>
+        <v>342</v>
+      </c>
+      <c r="B359" s="4"/>
       <c r="C359" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A360" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B360" s="29"/>
+      <c r="A360" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B360" s="4"/>
       <c r="C360" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B361" s="29"/>
+      <c r="A361" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B361" s="4"/>
       <c r="C361" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D361" s="13" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A362" s="8" t="s">
-        <v>356</v>
+      <c r="A362" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A363" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B363" s="29"/>
+      <c r="A363" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="B363" s="4"/>
       <c r="C363" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>674</v>
+        <v>781</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B364" s="29"/>
+        <v>271</v>
+      </c>
+      <c r="B364" s="4"/>
       <c r="C364" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B365" s="29"/>
+        <v>272</v>
+      </c>
+      <c r="B365" s="4"/>
       <c r="C365" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B366" s="29"/>
+        <v>273</v>
+      </c>
+      <c r="B366" s="4"/>
       <c r="C366" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B367" s="29"/>
+        <v>274</v>
+      </c>
+      <c r="B367" s="4"/>
       <c r="C367" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A368" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B368" s="29"/>
+      <c r="A368" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B368" s="4"/>
       <c r="C368" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B369" s="29"/>
+      <c r="A369" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B369" s="4"/>
       <c r="C369" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>680</v>
+        <v>779</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B370" s="29"/>
+        <v>343</v>
+      </c>
+      <c r="B370" s="4"/>
       <c r="C370" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B371" s="29"/>
+        <v>344</v>
+      </c>
+      <c r="B371" s="4"/>
       <c r="C371" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A372" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B372" s="29"/>
+      <c r="A372" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B372" s="4"/>
       <c r="C372" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B373" s="29"/>
+        <v>346</v>
+      </c>
+      <c r="B373" s="4"/>
       <c r="C373" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B374" s="29"/>
+        <v>347</v>
+      </c>
+      <c r="B374" s="4"/>
       <c r="C374" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B375" s="29"/>
+        <v>348</v>
+      </c>
+      <c r="B375" s="4"/>
       <c r="C375" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B376" s="29"/>
       <c r="C376" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B377" s="29"/>
       <c r="C377" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B378" s="29"/>
       <c r="C378" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
-        <v>372</v>
+        <v>925</v>
       </c>
       <c r="B379" s="29"/>
       <c r="C379" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>690</v>
+        <v>926</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B380" s="29"/>
       <c r="C380" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B381" s="29"/>
       <c r="C381" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B382" s="29"/>
+        <v>354</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="C382" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B383" s="29"/>
       <c r="C383" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D383" s="13" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A384" s="18" t="s">
-        <v>170</v>
+      <c r="A384" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="B384" s="29"/>
       <c r="C384" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A385" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B385" s="4"/>
+      <c r="A385" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B385" s="29"/>
       <c r="C385" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A386" s="15" t="s">
-        <v>171</v>
+      <c r="A386" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="B386" s="29"/>
       <c r="C386" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B387" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="B387" s="29"/>
       <c r="C387" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B388" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="B388" s="29"/>
       <c r="C388" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B389" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="B389" s="29"/>
       <c r="C389" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B390" s="4"/>
+        <v>362</v>
+      </c>
+      <c r="B390" s="29"/>
       <c r="C390" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D390" s="13" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B391" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="B391" s="29"/>
       <c r="C391" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A392" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B392" s="4"/>
+      <c r="A392" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B392" s="29"/>
       <c r="C392" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>703</v>
+        <v>916</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B393" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="B393" s="29"/>
       <c r="C393" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D393" s="13" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B394" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="B394" s="29"/>
       <c r="C394" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B395" s="4"/>
+        <v>366</v>
+      </c>
+      <c r="B395" s="29"/>
       <c r="C395" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D395" s="13" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B396" s="4"/>
+        <v>367</v>
+      </c>
+      <c r="B396" s="29"/>
       <c r="C396" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D396" s="13" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B397" s="4"/>
+        <v>368</v>
+      </c>
+      <c r="B397" s="29"/>
       <c r="C397" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B398" s="4"/>
+        <v>369</v>
+      </c>
+      <c r="B398" s="29"/>
       <c r="C398" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A399" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B399" s="4"/>
+      <c r="A399" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B399" s="29"/>
       <c r="C399" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A400" s="15" t="s">
-        <v>172</v>
+      <c r="A400" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="B400" s="29"/>
       <c r="C400" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A401" s="14" t="s">
-        <v>173</v>
+      <c r="A401" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="B401" s="29"/>
       <c r="C401" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D401" s="13" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A402" s="14" t="s">
-        <v>174</v>
+      <c r="A402" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="B402" s="29"/>
       <c r="C402" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D402" s="13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A403" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B403" s="29"/>
+      <c r="C403" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D403" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A404" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B404" s="29"/>
+      <c r="C404" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D404" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A405" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="B405" s="29"/>
+      <c r="C405" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D405" s="13" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A406" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="B406" s="29"/>
+      <c r="C406" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D406" s="13" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A407" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B407" s="4"/>
+      <c r="C407" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D407" s="13" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A408" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B408" s="4"/>
+      <c r="C408" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D408" s="13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A409" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B409" s="4"/>
+      <c r="C409" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D409" s="13" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A410" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B410" s="4"/>
+      <c r="C410" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D410" s="13" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A411" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B411" s="4"/>
+      <c r="C411" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A412" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B412" s="4"/>
+      <c r="C412" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D412" s="13" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A413" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B413" s="4"/>
+      <c r="C413" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D413" s="13" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A414" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B414" s="4"/>
+      <c r="C414" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D414" s="13" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A415" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B415" s="4"/>
+      <c r="C415" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D415" s="13" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A416" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B416" s="4"/>
+      <c r="C416" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D416" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A417" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B417" s="4"/>
+      <c r="C417" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D417" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A418" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B418" s="4"/>
+      <c r="C418" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D418" s="13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A419" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B419" s="4"/>
+      <c r="C419" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D419" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A420" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B420" s="4"/>
+      <c r="C420" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D420" s="13" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A421" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B421" s="4"/>
+      <c r="C421" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A422" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B422" s="32"/>
+      <c r="C422" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A423" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B423" s="4"/>
+      <c r="C423" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A424" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B424" s="4"/>
+      <c r="C424" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D424" s="13" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A425" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B425" s="4"/>
+      <c r="C425" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A426" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B426" s="4"/>
+      <c r="C426" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D426" s="13" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A427" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B427" s="4"/>
+      <c r="C427" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D427" s="13" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A428" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B428" s="4"/>
+      <c r="C428" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D428" s="13" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A429" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B429" s="4"/>
+      <c r="C429" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D429" s="13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A430" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B430" s="4"/>
+      <c r="C430" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D430" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A431" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B431" s="4"/>
+      <c r="C431" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A432" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B432" s="4"/>
+      <c r="C432" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D432" s="13" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A433" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B433" s="4"/>
+      <c r="C433" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D433" s="13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A434" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B434" s="4"/>
+      <c r="C434" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D434" s="13" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A435" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B435" s="4"/>
+      <c r="C435" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D435" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A436" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B436" s="29"/>
+      <c r="C436" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D436" s="13" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A437" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B437" s="4"/>
+      <c r="C437" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A438" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B438" s="4"/>
+      <c r="C438" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D438" s="13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A439" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B439" s="4"/>
+      <c r="C439" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A440" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B440" s="4"/>
+      <c r="C440" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A441" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B441" s="4"/>
+      <c r="C441" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D441" s="13" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A442" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B442" s="4"/>
+      <c r="C442" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A443" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B443" s="4"/>
+      <c r="C443" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D443" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A444" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B444" s="4"/>
+      <c r="C444" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D444" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A445" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B445" s="4"/>
+      <c r="C445" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D445" s="13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A446" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B446" s="4"/>
+      <c r="C446" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D446" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A447" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B447" s="4"/>
+      <c r="C447" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D447" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A448" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B448" s="4"/>
+      <c r="C448" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D448" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A449" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C449" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A450" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B450" s="29"/>
+      <c r="C450" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D450" s="13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A451" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B451" s="32"/>
+      <c r="C451" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A452" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B452" s="29"/>
+      <c r="C452" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A453" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B453" s="29"/>
+      <c r="C453" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A454" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B454" s="29"/>
+      <c r="C454" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C403" s="20" t="s">
+      <c r="C455" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D403" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A404" s="8" t="s">
+      <c r="D455" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A456" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A457" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A458" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D458" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B404" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="C404" s="12" t="s">
+    </row>
+    <row r="459" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A459" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="B460" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C460" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D460" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A461" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="B461" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C461" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D404" s="13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A405" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A406" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C406" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A407" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>418</v>
+      <c r="D461" s="13" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B404" xr:uid="{49994F4D-4A01-4C62-988C-F2BC08F7DD32}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B456" xr:uid="{845E73F5-AE4C-4487-8F52-8E34F958B13A}">
       <formula1>"wide,long"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B461" xr:uid="{49BC63A9-A06A-4561-ABB2-C05EA9581A26}">
+      <formula1>"organism_acinetobacter_baumannii,organism_acinetobacter_spp"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
